--- a/661浇水统计.xlsx
+++ b/661浇水统计.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,14 @@
   </si>
   <si>
     <t>delta(12 Days)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delat (16 Days)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,22 +533,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,8 +562,14 @@
       <c r="D1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -568,8 +583,15 @@
         <f>C2-B2</f>
         <v>5199</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>229162</v>
+      </c>
+      <c r="F2">
+        <f>E2-B2</f>
+        <v>6616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -580,41 +602,62 @@
         <v>195531</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D36" si="0">C3-B3</f>
+        <f>C3-B3</f>
         <v>4146</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>197259</v>
+      </c>
+      <c r="F3">
+        <f>E3-B3</f>
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>156090</v>
+      </c>
+      <c r="C4">
+        <v>162090</v>
+      </c>
+      <c r="D4">
+        <f>C4-B4</f>
+        <v>6000</v>
+      </c>
+      <c r="E4">
+        <v>164090</v>
+      </c>
+      <c r="F4">
+        <f>E4-B4</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>159453</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>162343</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
+      <c r="D5">
+        <f>C5-B5</f>
         <v>2890</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>156090</v>
-      </c>
-      <c r="C5">
-        <v>162090</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>163794</v>
+      </c>
+      <c r="F5">
+        <f>E5-B5</f>
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -625,11 +668,18 @@
         <v>159902</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>C6-B6</f>
         <v>5020</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>161702</v>
+      </c>
+      <c r="F6">
+        <f>E6-B6</f>
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -640,11 +690,18 @@
         <v>129799</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f>C7-B7</f>
         <v>4233</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>130827</v>
+      </c>
+      <c r="F7">
+        <f>E7-B7</f>
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -655,11 +712,18 @@
         <v>110348</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>C8-B8</f>
         <v>3136</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>111000</v>
+      </c>
+      <c r="F8">
+        <f>E8-B8</f>
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -670,11 +734,18 @@
         <v>99946</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f>C9-B9</f>
         <v>2834</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>101195</v>
+      </c>
+      <c r="F9">
+        <f>E9-B9</f>
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -685,56 +756,84 @@
         <v>95670</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>C10-B10</f>
         <v>2500</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>96270</v>
+      </c>
+      <c r="F10">
+        <f>E10-B10</f>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>85328</v>
+      </c>
+      <c r="C11">
+        <v>91328</v>
+      </c>
+      <c r="D11">
+        <f>C11-B11</f>
+        <v>6000</v>
+      </c>
+      <c r="E11">
+        <v>93328</v>
+      </c>
+      <c r="F11">
+        <f>E11-B11</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>85800</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>88300</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="D12">
+        <f>C12-B12</f>
         <v>2500</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="E12">
+        <v>88800</v>
+      </c>
+      <c r="F12">
+        <f>E12-B12</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>85387</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>87860</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
+      <c r="D13">
+        <f>C13-B13</f>
         <v>2473</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>85328</v>
-      </c>
-      <c r="C13">
-        <v>91328</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>88521</v>
+      </c>
+      <c r="F13">
+        <f>E13-B13</f>
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -745,11 +844,18 @@
         <v>84650</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f>C14-B14</f>
         <v>1613</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>84906</v>
+      </c>
+      <c r="F14">
+        <f>E14-B14</f>
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -760,11 +866,18 @@
         <v>77233</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f>C15-B15</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>77333</v>
+      </c>
+      <c r="F15">
+        <f>E15-B15</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -775,11 +888,18 @@
         <v>71342</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>C16-B16</f>
         <v>1106</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>71687</v>
+      </c>
+      <c r="F16">
+        <f>E16-B16</f>
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -790,11 +910,18 @@
         <v>66310</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f>C17-B17</f>
         <v>2965</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>66810</v>
+      </c>
+      <c r="F17">
+        <f>E17-B17</f>
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -805,71 +932,106 @@
         <v>64500</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f>C18-B18</f>
         <v>2400</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>64900</v>
+      </c>
+      <c r="F18">
+        <f>E18-B18</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>57102</v>
+      </c>
+      <c r="C19">
+        <v>59607</v>
+      </c>
+      <c r="D19">
+        <f>C19-B19</f>
+        <v>2505</v>
+      </c>
+      <c r="E19">
+        <v>60572</v>
+      </c>
+      <c r="F19">
+        <f>E19-B19</f>
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>59518</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>60225</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
+      <c r="D20">
+        <f>C20-B20</f>
         <v>707</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>57102</v>
-      </c>
-      <c r="C20">
-        <v>59607</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>60511</v>
+      </c>
+      <c r="F20">
+        <f>E20-B20</f>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>52663</v>
+      </c>
+      <c r="C21">
+        <v>55543</v>
+      </c>
+      <c r="D21">
+        <f>C21-B21</f>
+        <v>2880</v>
+      </c>
+      <c r="E21">
+        <v>56588</v>
+      </c>
+      <c r="F21">
+        <f>E21-B21</f>
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>54233</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>56033</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
+      <c r="D22">
+        <f>C22-B22</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>52663</v>
-      </c>
-      <c r="C22">
-        <v>55543</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>56533</v>
+      </c>
+      <c r="F22">
+        <f>E22-B22</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -880,11 +1042,18 @@
         <v>53080</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f>C23-B23</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <v>53530</v>
+      </c>
+      <c r="F23">
+        <f>E23-B23</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -895,11 +1064,18 @@
         <v>50973</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f>C24-B24</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>51973</v>
+      </c>
+      <c r="F24">
+        <f>E24-B24</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -910,11 +1086,18 @@
         <v>49700</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f>C25-B25</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <v>50200</v>
+      </c>
+      <c r="F25">
+        <f>E25-B25</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -925,11 +1108,18 @@
         <v>43730</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f>C26-B26</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <v>44130</v>
+      </c>
+      <c r="F26">
+        <f>E26-B26</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -940,11 +1130,18 @@
         <v>42271</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f>C27-B27</f>
         <v>1600</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <v>43171</v>
+      </c>
+      <c r="F27">
+        <f>E27-B27</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -955,11 +1152,18 @@
         <v>38840</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f>C28-B28</f>
         <v>2500</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <v>39340</v>
+      </c>
+      <c r="F28">
+        <f>E28-B28</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -970,11 +1174,18 @@
         <v>36848</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f>C29-B29</f>
         <v>2400</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <v>37648</v>
+      </c>
+      <c r="F29">
+        <f>E29-B29</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -985,11 +1196,18 @@
         <v>33880</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f>C30-B30</f>
         <v>1650</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E30">
+        <v>34330</v>
+      </c>
+      <c r="F30">
+        <f>E30-B30</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1000,11 +1218,18 @@
         <v>32408</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f>C31-B31</f>
         <v>1400</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <v>33008</v>
+      </c>
+      <c r="F31">
+        <f>E31-B31</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1015,11 +1240,18 @@
         <v>28600</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f>C32-B32</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E32">
+        <v>29100</v>
+      </c>
+      <c r="F32">
+        <f>E32-B32</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1030,11 +1262,18 @@
         <v>28150</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f>C33-B33</f>
         <v>1600</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E33">
+        <v>28650</v>
+      </c>
+      <c r="F33">
+        <f>E33-B33</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1045,58 +1284,80 @@
         <v>15898</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f>C34-B34</f>
         <v>297</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E34">
+        <v>16000</v>
+      </c>
+      <c r="F34">
+        <f>E34-B34</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>13100</v>
+      </c>
+      <c r="E35">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>10960</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>12360</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
+      <c r="D36">
+        <f>C36-B36</f>
         <v>1400</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="E36">
+        <v>12960</v>
+      </c>
+      <c r="F36">
+        <f>E36-B36</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>510</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>510</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
+      <c r="D37">
+        <f>C37-B37</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>13100</v>
+      <c r="E37">
+        <v>510</v>
+      </c>
+      <c r="F37">
+        <f>E37-B37</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D37">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="4000"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A1:F37">
+    <sortState ref="A2:F37">
+      <sortCondition descending="1" ref="E1:E37"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
